--- a/DOC/MapleStory/ToDo.xlsx
+++ b/DOC/MapleStory/ToDo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Git\Wany_Project\DOC\MapleStory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E78647-8BF0-42CD-910F-8E0E0483A551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9342CE68-E58F-45C6-B5F3-5985F062D7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" xr2:uid="{A46BA287-FEA7-49A3-B502-4A81FCEBF1B2}"/>
+    <workbookView xWindow="-25620" yWindow="3090" windowWidth="21600" windowHeight="11385" xr2:uid="{A46BA287-FEA7-49A3-B502-4A81FCEBF1B2}"/>
   </bookViews>
   <sheets>
     <sheet name="2022-09-29" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Update date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,10 @@
   </si>
   <si>
     <t>단축키 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프라이트로 들고 있는 경우와 텍스처로 들고 있는 경우 동시에 고려 해야함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,7 +520,7 @@
   <dimension ref="B2:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -525,7 +529,7 @@
     <col min="2" max="2" width="12.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="72" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -541,7 +545,7 @@
       </c>
       <c r="E2" s="2">
         <f ca="1">TODAY()</f>
-        <v>44833</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
@@ -574,6 +578,9 @@
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">

--- a/DOC/MapleStory/ToDo.xlsx
+++ b/DOC/MapleStory/ToDo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Git\Wany_Project\DOC\MapleStory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9342CE68-E58F-45C6-B5F3-5985F062D7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4A7889-096A-4D66-93BD-224E79A14B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25620" yWindow="3090" windowWidth="21600" windowHeight="11385" xr2:uid="{A46BA287-FEA7-49A3-B502-4A81FCEBF1B2}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" xr2:uid="{A46BA287-FEA7-49A3-B502-4A81FCEBF1B2}"/>
   </bookViews>
   <sheets>
     <sheet name="2022-09-29" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Update date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,14 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,6 +139,28 @@
   </si>
   <si>
     <t>스프라이트로 들고 있는 경우와 텍스처로 들고 있는 경우 동시에 고려 해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작 일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료 일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSM 제작 되어야 몬스터 Sprite 출력 가능.
+각 State 별 Sprite 사이즈가 달라 각각의 위치계산 필요. 
+오프셋 이용하여 출력 포지션 다르게 하고, 이전 포지션으로 돌아가는 기능 필요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -193,7 +207,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -202,6 +216,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AEB443-CD4B-4771-B505-BA559945372D}">
-  <dimension ref="B2:G15"/>
+  <dimension ref="B2:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -529,13 +549,18 @@
     <col min="2" max="2" width="12.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="71.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="6.625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2">
         <v>44833</v>
@@ -548,7 +573,7 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -556,22 +581,28 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
-        <f>COUNTA($C$4:C4) - COUNTA($G$4:G4)</f>
-        <v>1</v>
+        <f>COUNTA($C$4:C4) - COUNTA($H$4:H4)</f>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -580,132 +611,153 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2">
+        <v>44834</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H4" s="2">
+        <v>44834</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.78125</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
-        <f>COUNTA($C$4:C5) - COUNTA($G$4:G5)</f>
-        <v>2</v>
+        <f>COUNTA($C$4:C5) - COUNTA($H$4:H5)</f>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2">
+        <v>44834</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <f>COUNTA($C$4:C6) - COUNTA($H$4:H6)</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <f>COUNTA($C$4:C7) - COUNTA($H$4:H7)</f>
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <f>COUNTA($C$4:C6) - COUNTA($G$4:G6)</f>
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
-        <f>COUNTA($C$4:C7) - COUNTA($G$4:G7)</f>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <f>COUNTA($C$4:C8) - COUNTA($H$4:H8)</f>
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
-        <f>COUNTA($C$4:C8) - COUNTA($G$4:G8)</f>
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/MapleStory/ToDo.xlsx
+++ b/DOC/MapleStory/ToDo.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Git\Wany_Project\DOC\MapleStory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Git\Wany_Project\DOC\MapleStory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4A7889-096A-4D66-93BD-224E79A14B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" xr2:uid="{A46BA287-FEA7-49A3-B502-4A81FCEBF1B2}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="2022-09-29" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Update date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,7 +157,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>경험치 획득 구현 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨업 이펙트 구현 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FSM 제작 되어야 몬스터 Sprite 출력 가능.
+Search 추가하였으나 Attack 동작 제대로 하는지 확인 어려움.
 각 State 별 Sprite 사이즈가 달라 각각의 위치계산 필요. 
 오프셋 이용하여 출력 포지션 다르게 하고, 이전 포지션으로 돌아가는 기능 필요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,7 +175,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -536,11 +544,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AEB443-CD4B-4771-B505-BA559945372D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -570,7 +578,7 @@
       </c>
       <c r="E2" s="2">
         <f ca="1">TODAY()</f>
-        <v>44834</v>
+        <v>44837</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
@@ -626,7 +634,7 @@
         <v>0.78125</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="66" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <f>COUNTA($C$4:C5) - COUNTA($H$4:H5)</f>
         <v>1</v>
@@ -638,7 +646,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2">
         <v>44834</v>
@@ -662,25 +670,55 @@
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <f>COUNTA($C$4:C7) - COUNTA($H$4:H7)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44836</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44837</v>
+      </c>
+      <c r="I7" s="3">
+        <v>8.3333333333333332E-3</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <f>COUNTA($C$4:C8) - COUNTA($H$4:H8)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2">
+        <v>44836</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="H8" s="2">
+        <v>44837</v>
+      </c>
+      <c r="I8" s="3">
+        <v>8.3333333333333332E-3</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
@@ -763,5 +801,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DOC/MapleStory/ToDo.xlsx
+++ b/DOC/MapleStory/ToDo.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Update date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
   </si>
   <si>
     <t>몬스터 Sprite 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중요도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -169,6 +165,18 @@
 Search 추가하였으나 Attack 동작 제대로 하는지 확인 어려움.
 각 State 별 Sprite 사이즈가 달라 각각의 위치계산 필요. 
 오프셋 이용하여 출력 포지션 다르게 하고, 이전 포지션으로 돌아가는 기능 필요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지스킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지스킨 이펙트 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중요도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I15"/>
+  <dimension ref="B2:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -568,7 +576,7 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2">
         <v>44833</v>
@@ -583,35 +591,31 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
-        <f>COUNTA($C$4:C4) - COUNTA($H$4:H4)</f>
-        <v>0</v>
-      </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -619,7 +623,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2">
         <v>44834</v>
@@ -635,18 +639,14 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
-        <f>COUNTA($C$4:C5) - COUNTA($H$4:H5)</f>
-        <v>1</v>
-      </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2">
         <v>44834</v>
@@ -654,32 +654,33 @@
       <c r="G5" s="3">
         <v>0.41666666666666669</v>
       </c>
+      <c r="H5" s="2">
+        <v>44837</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.64930555555555558</v>
+      </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
-        <f>COUNTA($C$4:C6) - COUNTA($H$4:H6)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
-        <f>COUNTA($C$4:C7) - COUNTA($H$4:H7)</f>
-        <v>2</v>
-      </c>
       <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2">
         <v>44836</v>
@@ -695,18 +696,14 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
-        <f>COUNTA($C$4:C8) - COUNTA($H$4:H8)</f>
-        <v>2</v>
-      </c>
       <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2">
         <v>44836</v>
@@ -723,79 +720,94 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>24</v>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/MapleStory/ToDo.xlsx
+++ b/DOC/MapleStory/ToDo.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Update date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,10 @@
   </si>
   <si>
     <t>중요도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지스킨 + 알파블렌드 이펙트 구현 완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,7 +560,7 @@
   <dimension ref="B2:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -728,10 +732,21 @@
       <c r="D9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2">
+        <v>44837</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="H9" s="2">
+        <v>44837</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.85486111111111107</v>
+      </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="1">

--- a/DOC/MapleStory/ToDo.xlsx
+++ b/DOC/MapleStory/ToDo.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Update date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +181,10 @@
   </si>
   <si>
     <t>데미지스킨 + 알파블렌드 이펙트 구현 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더블 점프 이펙트만 추가 완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,7 +564,7 @@
   <dimension ref="B2:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -590,7 +594,7 @@
       </c>
       <c r="E2" s="2">
         <f ca="1">TODAY()</f>
-        <v>44837</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
@@ -674,6 +678,9 @@
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">

--- a/DOC/MapleStory/ToDo.xlsx
+++ b/DOC/MapleStory/ToDo.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Git\Wany_Project\DOC\MapleStory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Git\Wany_Project\DOC\MapleStory\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F7750A-28BB-401C-8A7A-D1E92803E985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022-09-29" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Update date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,14 +185,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>더블 점프 이펙트만 추가 완료</t>
+    <t>텍스트 위치 이상하긴 하지만 출력 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더블 점프 이펙트만 추가 완료, 
+collision Update에 따라 피격 될 때가 있고 안될 때가 있음.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -560,11 +566,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -670,28 +676,37 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="F6" s="2">
+        <v>44836</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="H6" s="2">
+        <v>44837</v>
+      </c>
+      <c r="I6" s="3">
+        <v>8.3333333333333332E-3</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2">
         <v>44836</v>
@@ -707,85 +722,106 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2">
-        <v>44836</v>
+        <v>44837</v>
       </c>
       <c r="G8" s="3">
-        <v>0.875</v>
+        <v>0.64930555555555558</v>
       </c>
       <c r="H8" s="2">
         <v>44837</v>
       </c>
       <c r="I8" s="3">
-        <v>8.3333333333333332E-3</v>
+        <v>0.85486111111111107</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" s="2">
-        <v>44837</v>
+        <v>44838</v>
       </c>
       <c r="G9" s="3">
-        <v>0.64930555555555558</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="H9" s="2">
-        <v>44837</v>
+        <v>44838</v>
       </c>
       <c r="I9" s="3">
-        <v>0.85486111111111107</v>
+        <v>0.68402777777777779</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="2">
+        <v>44838</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H10" s="2">
+        <v>44838</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.68402777777777779</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">

--- a/DOC/MapleStory/ToDo.xlsx
+++ b/DOC/MapleStory/ToDo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Git\Wany_Project\DOC\MapleStory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F7750A-28BB-401C-8A7A-D1E92803E985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26617C19-B36D-4179-8B4D-68BCDD5A86F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Update date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,22 @@
   <si>
     <t>더블 점프 이펙트만 추가 완료, 
 collision Update에 따라 피격 될 때가 있고 안될 때가 있음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 2개 추가. (즉발형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 사운드 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타격 사운드 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I16"/>
+  <dimension ref="B2:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -834,6 +850,18 @@
       <c r="D13" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="2">
+        <v>44838</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.76527777777777783</v>
+      </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
@@ -866,6 +894,25 @@
       </c>
       <c r="D16" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/MapleStory/ToDo.xlsx
+++ b/DOC/MapleStory/ToDo.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Git\Wany_Project\DOC\MapleStory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Git\Wany_Project\DOC\MapleStory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26617C19-B36D-4179-8B4D-68BCDD5A86F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="2022-09-29" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -213,7 +212,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -582,11 +581,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -616,7 +615,7 @@
       </c>
       <c r="E2" s="2">
         <f ca="1">TODAY()</f>
-        <v>44838</v>
+        <v>44839</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
@@ -865,54 +864,81 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
+      </c>
+      <c r="F14" s="2">
+        <v>44839</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H14" s="2">
+        <v>44839</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.56041666666666667</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
+      </c>
+      <c r="F15" s="2">
+        <v>44839</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H15" s="2">
+        <v>44839</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.56041666666666667</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>9</v>
+      </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/MapleStory/ToDo.xlsx
+++ b/DOC/MapleStory/ToDo.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>Update date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,10 +78,6 @@
   </si>
   <si>
     <t>레벨업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어 피격 및 더블 점프 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -188,11 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>더블 점프 이펙트만 추가 완료, 
-collision Update에 따라 피격 될 때가 있고 안될 때가 있음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스킬 2개 추가. (즉발형)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,6 +197,38 @@
   </si>
   <si>
     <t>타격 사운드 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출력 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ -1 ~ 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 - 0.5 ~ 0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인트로 씬 제작 완료, 종료 UI 야매 제작 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 피격 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 더블 점프 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 NPC 에서 Collision 체크로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더블 점프 이펙트만 추가 완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I18"/>
+  <dimension ref="B2:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -605,7 +628,7 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2">
         <v>44833</v>
@@ -620,7 +643,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -632,16 +655,16 @@
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
@@ -652,7 +675,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2">
         <v>44834</v>
@@ -675,7 +698,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2">
         <v>44834</v>
@@ -698,7 +721,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2">
         <v>44836</v>
@@ -721,7 +744,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2">
         <v>44836</v>
@@ -741,13 +764,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2">
         <v>44837</v>
@@ -767,13 +790,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="2">
         <v>44838</v>
@@ -793,13 +816,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="2">
         <v>44838</v>
@@ -819,81 +842,95 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="2">
+        <v>44839</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H11" s="2">
+        <v>44839</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.94236111111111109</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>37</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="2">
+        <v>44839</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2">
+        <v>44839</v>
+      </c>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="2">
-        <v>44838</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.68402777777777779</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0.76527777777777783</v>
+        <v>45</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="2">
-        <v>44839</v>
+        <v>44838</v>
       </c>
       <c r="G14" s="3">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="H14" s="2">
-        <v>44839</v>
+        <v>0.68402777777777779</v>
       </c>
       <c r="I14" s="3">
-        <v>0.56041666666666667</v>
+        <v>0.76527777777777783</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="F15" s="2">
         <v>44839</v>
@@ -910,35 +947,71 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="2">
+        <v>44839</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H16" s="2">
+        <v>44839</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.56041666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
         <v>7</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="1" t="s">
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="1">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="1">
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
         <v>9</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>23</v>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
